--- a/docs/詳細設計/ロバストネス図/ロバストネス図改訂履歴.xlsx
+++ b/docs/詳細設計/ロバストネス図/ロバストネス図改訂履歴.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\ロバストネス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E662F10-15A5-41C6-B822-369303E8A439}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85AC3B-A5AB-41EA-BC67-42BD44CFE941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
+    <sheet name="改訂履歴(ログイン)" sheetId="11" r:id="rId2"/>
+    <sheet name="改訂履歴(ランキング表示)" sheetId="10" r:id="rId3"/>
+    <sheet name="改訂履歴(ベット)" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +87,75 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・control ボタン群を表示を説明するノートの位置修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・所持金が同額の場合の表示順についての記載を追加。</t>
+    <rPh sb="1" eb="4">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインサービスの処理を追加
+  ログインユーザーがその日にログイン済みかチェック
+  →ログイン済みでなければ、所持金情報の取得・更新・保存をする。</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,7 +267,205 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -279,9 +549,45 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:C3" totalsRowShown="0">
   <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{4350222D-07D0-49C1-8753-03C3A126A159}" name="作業日" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4350222D-07D0-49C1-8753-03C3A126A159}" name="作業日" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6C22CD7-236A-4E93-946E-71AAA6881F6C}" name="テーブル33245" displayName="テーブル33245" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2D047613-1A6B-47D6-B21B-BA558637FCED}" name="バージョン" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{22F173DA-07D3-4E6D-83B8-04C824584859}" name="改修内容" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A73487AE-957F-4696-BD7F-5FDC10014ADF}" name="作業日" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{213E5C8C-A581-4A38-97D9-E10C4B070031}" name="テーブル3324" displayName="テーブル3324" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BC355CA0-9B7E-4A17-B582-46DA79A0B66D}" name="バージョン" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{25619AA6-0665-4DEA-BE6B-5CAB37E55374}" name="改修内容" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{376CE889-ADAA-442E-B1E8-3B124F205AC6}" name="作業日" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29D34ADA-E0CC-4695-862F-6FA0E17D6C3A}" name="テーブル332" displayName="テーブル332" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{93ECFEFD-A7AD-466A-A33C-61F5D8A4F7B9}" name="バージョン" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9B98A749-95A3-4B6C-80AA-F09DBC47A75E}" name="改修内容" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D6CC76B8-CBE3-4E9F-8F9F-0862D64BF339}" name="作業日" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,6 +893,63 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43490</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18AC7F4-1EE0-40A7-ABEF-1B66646B14B8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -624,10 +987,124 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
-        <v>43490</v>
+        <v>43491</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE90BD00-5E09-4417-ABA0-05FFCF2DF170}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43491</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDF649F-48D1-4103-891D-429C3F521525}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43491</v>
       </c>
     </row>
   </sheetData>

--- a/docs/詳細設計/ロバストネス図/ロバストネス図改訂履歴.xlsx
+++ b/docs/詳細設計/ロバストネス図/ロバストネス図改訂履歴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\ロバストネス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85AC3B-A5AB-41EA-BC67-42BD44CFE941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250A46C-9251-4C75-B075-88473D8029BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="972" yWindow="864" windowWidth="21816" windowHeight="9816" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +156,30 @@
     </rPh>
     <rPh sb="70" eb="72">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ログインセッション作成後に、ログイン済みフラグ確認を追加
+  </t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -244,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +285,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,12 +588,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6C22CD7-236A-4E93-946E-71AAA6881F6C}" name="テーブル33245" displayName="テーブル33245" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6C22CD7-236A-4E93-946E-71AAA6881F6C}" name="テーブル33245" displayName="テーブル33245" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2D047613-1A6B-47D6-B21B-BA558637FCED}" name="バージョン" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{22F173DA-07D3-4E6D-83B8-04C824584859}" name="改修内容" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A73487AE-957F-4696-BD7F-5FDC10014ADF}" name="作業日" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2D047613-1A6B-47D6-B21B-BA558637FCED}" name="バージョン" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{22F173DA-07D3-4E6D-83B8-04C824584859}" name="改修内容" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A73487AE-957F-4696-BD7F-5FDC10014ADF}" name="作業日" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -585,9 +615,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29D34ADA-E0CC-4695-862F-6FA0E17D6C3A}" name="テーブル332" displayName="テーブル332" ref="A1:C3" totalsRowShown="0">
   <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{93ECFEFD-A7AD-466A-A33C-61F5D8A4F7B9}" name="バージョン" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9B98A749-95A3-4B6C-80AA-F09DBC47A75E}" name="改修内容" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D6CC76B8-CBE3-4E9F-8F9F-0862D64BF339}" name="作業日" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{93ECFEFD-A7AD-466A-A33C-61F5D8A4F7B9}" name="バージョン" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9B98A749-95A3-4B6C-80AA-F09DBC47A75E}" name="改修内容" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D6CC76B8-CBE3-4E9F-8F9F-0862D64BF339}" name="作業日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -947,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18AC7F4-1EE0-40A7-ABEF-1B66646B14B8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -991,6 +1021,17 @@
       </c>
       <c r="C3" s="4">
         <v>43491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43520</v>
       </c>
     </row>
   </sheetData>

--- a/docs/詳細設計/ロバストネス図/ロバストネス図改訂履歴.xlsx
+++ b/docs/詳細設計/ロバストネス図/ロバストネス図改訂履歴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\ロバストネス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250A46C-9251-4C75-B075-88473D8029BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F970D74A-71DB-4C5A-80B2-AA34CDC3B59B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="864" windowWidth="21816" windowHeight="9816" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -180,6 +180,24 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・control「ポーカースタート画面にエラーを表示する」を削除
+・control「数字以外入力されてないかのパターンチェックを実施」を追加
+・代替コースに、ベット金額に数字以外が入力されていた場合に、ポーカープレイ画面にエラーを出すような処理を追加
+・control「ボタン群を表示する」を「勝敗結果と勝負後の所持金とボタン群を表示する」に変更
+・勝負を降りたパターンを表現するため、control「勝負を降りた旨を伝えるメッセージとボタン群を表示する」を追加</t>
+    <rPh sb="120" eb="122">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>ツタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,8 +630,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29D34ADA-E0CC-4695-862F-6FA0E17D6C3A}" name="テーブル332" displayName="テーブル332" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29D34ADA-E0CC-4695-862F-6FA0E17D6C3A}" name="テーブル332" displayName="テーブル332" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{93ECFEFD-A7AD-466A-A33C-61F5D8A4F7B9}" name="バージョン" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{9B98A749-95A3-4B6C-80AA-F09DBC47A75E}" name="改修内容" dataDxfId="1"/>
@@ -922,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1101CFE-3A47-40C0-8D0E-0FA60B6F5711}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1102,16 +1120,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDF649F-48D1-4103-891D-429C3F521525}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="2" max="2" width="96.796875" customWidth="1"/>
     <col min="3" max="3" width="17.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1146,6 +1164,17 @@
       </c>
       <c r="C3" s="4">
         <v>43491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43527</v>
       </c>
     </row>
   </sheetData>
